--- a/06-03/resultados_liga_portuguesa_2025.xlsx
+++ b/06-03/resultados_liga_portuguesa_2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Jornada</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -460,27 +460,102 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>Pontos Time 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Sporting</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Porto</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Benfica</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Braga</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Maritimo</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Boavista</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Vitória de Guimarães</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Rio Ave</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Famalicão</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Estoril Praia</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Santa Clara</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Tondela</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Portimonense</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Arouca</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Total de Pontos Casa Pia</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-02-25</t>
+          <t>Jornada 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sporting</t>
-        </is>
-      </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -491,179 +566,249 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Sporting", G$2:G$17) + SOMASE(C$2:C$17, "Sporting", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Sporting", G$2:G$20) + SOMASE(C$2:C$20, "Sporting", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23-02-25</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vitória de Guimarães</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Porto", G$2:G$17) + SOMASE(C$2:C$17, "Porto", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Porto", G$2:G$20) + SOMASE(C$2:C$20, "Porto", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="I4" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Benfica", G$2:G$17) + SOMASE(C$2:C$17, "Benfica", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Benfica", G$2:G$20) + SOMASE(C$2:C$20, "Benfica", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="I5" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Braga", G$2:G$17) + SOMASE(C$2:C$17, "Braga", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Braga", G$2:G$20) + SOMASE(C$2:C$20, "Braga", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="I6" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Maritimo", G$2:G$17) + SOMASE(C$2:C$17, "Maritimo", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Maritimo", G$2:G$20) + SOMASE(C$2:C$20, "Maritimo", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="I7" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Boavista", G$2:G$17) + SOMASE(C$2:C$17, "Boavista", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Boavista", G$2:G$20) + SOMASE(C$2:C$20, "Boavista", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="I8" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Vitória de Guimarães", G$2:G$17) + SOMASE(C$2:C$17, "Vitória de Guimarães", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Vitória de Guimarães", G$2:G$20) + SOMASE(C$2:C$20, "Vitória de Guimarães", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Rio Ave", G$2:G$17) + SOMASE(C$2:C$17, "Rio Ave", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Rio Ave", G$2:G$20) + SOMASE(C$2:C$20, "Rio Ave", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="I10" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Famalicão", G$2:G$17) + SOMASE(C$2:C$17, "Famalicão", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Famalicão", G$2:G$20) + SOMASE(C$2:C$20, "Famalicão", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="I11" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Estoril Praia", G$2:G$17) + SOMASE(C$2:C$17, "Estoril Praia", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Estoril Praia", G$2:G$20) + SOMASE(C$2:C$20, "Estoril Praia", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="I12" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Santa Clara", G$2:G$17) + SOMASE(C$2:C$17, "Santa Clara", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Santa Clara", G$2:G$20) + SOMASE(C$2:C$20, "Santa Clara", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="I13" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Tondela", G$2:G$17) + SOMASE(C$2:C$17, "Tondela", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Tondela", G$2:G$20) + SOMASE(C$2:C$20, "Tondela", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="I14" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Portimonense", G$2:G$17) + SOMASE(C$2:C$17, "Portimonense", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Portimonense", G$2:G$20) + SOMASE(C$2:C$20, "Portimonense", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="I15" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Arouca", G$2:G$17) + SOMASE(C$2:C$17, "Arouca", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Arouca", G$2:G$20) + SOMASE(C$2:C$20, "Arouca", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="I16" t="inlineStr">
         <is>
-          <t>SOMASE(B$2:B$17, "Casa Pia", G$2:G$17) + SOMASE(C$2:C$17, "Casa Pia", H$2:H$17)</t>
+          <t>SOMASE(B$2:B$20, "Casa Pia", G$2:G$20) + SOMASE(C$2:C$20, "Casa Pia", H$2:H$20)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-02-25</t>
+          <t>Jornada 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jornada 3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jornada 3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jornada 3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Tondela</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
